--- a/biology/Botanique/Trigonelle_en_glaive/Trigonelle_en_glaive.xlsx
+++ b/biology/Botanique/Trigonelle_en_glaive/Trigonelle_en_glaive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trigonella gladiata
 La Trigonelle en glaive est une espèce de la famille des Fabaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle, généralement couchée, velue, à fleurs blanchâtres assez petites, et à gousses velues dressées et arquées, prolongées par un bec long de 1 à 2 cm.
 </t>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Trigonella gladiata Steven ex M.Bieb.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Trigonelle à épées[2], Trigonelle en glaive[2], Trigonelle à fruits en glaive[3], Trigonelle armée d'épées[3].
-Trigonella gladiata a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Trigonella gladiata Steven ex M.Bieb..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Trigonelle à épées, Trigonelle en glaive, Trigonelle à fruits en glaive, Trigonelle armée d'épées.
+Trigonella gladiata a pour synonymes :
 Foenum-graecum prostratum Fourr.
 Folliculigera procumbens Pasq.
 Medicago gladiata (Steven ex M.Bieb.) E.H.L.Krause
